--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Apoe-Lrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Apoe-Lrp2.xlsx
@@ -543,28 +543,28 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.020839</v>
+        <v>13.10570166666667</v>
       </c>
       <c r="H2">
-        <v>57.06251699999999</v>
+        <v>39.317105</v>
       </c>
       <c r="I2">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="J2">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.01049366666666667</v>
+        <v>0.110028</v>
       </c>
       <c r="N2">
-        <v>0.031481</v>
+        <v>0.330084</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -573,16 +573,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.1995983441863333</v>
+        <v>1.44199414298</v>
       </c>
       <c r="R2">
-        <v>1.796385097677</v>
+        <v>12.97794728682</v>
       </c>
       <c r="S2">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="T2">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,22 +611,22 @@
         <v>9.729894999999999</v>
       </c>
       <c r="I3">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="J3">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.01049366666666667</v>
+        <v>0.110028</v>
       </c>
       <c r="N3">
-        <v>0.031481</v>
+        <v>0.330084</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -635,16 +635,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.03403409161055555</v>
+        <v>0.35685362902</v>
       </c>
       <c r="R3">
-        <v>0.306306824495</v>
+        <v>3.21168266118</v>
       </c>
       <c r="S3">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="T3">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,28 +667,28 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2517.581258333333</v>
+        <v>608.3979493333333</v>
       </c>
       <c r="H4">
-        <v>7552.743774999999</v>
+        <v>1825.193848</v>
       </c>
       <c r="I4">
-        <v>0.3871709269072258</v>
+        <v>0.2022131050118309</v>
       </c>
       <c r="J4">
-        <v>0.3871709269072258</v>
+        <v>0.202213105011831</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.01049366666666667</v>
+        <v>0.110028</v>
       </c>
       <c r="N4">
-        <v>0.031481</v>
+        <v>0.330084</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -697,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>26.41865853119722</v>
+        <v>66.94080956924799</v>
       </c>
       <c r="R4">
-        <v>237.767926780775</v>
+        <v>602.4672861232319</v>
       </c>
       <c r="S4">
-        <v>0.3871709269072258</v>
+        <v>0.2022131050118309</v>
       </c>
       <c r="T4">
-        <v>0.3871709269072258</v>
+        <v>0.202213105011831</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,28 +729,28 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.06326066666667</v>
+        <v>3.045399333333334</v>
       </c>
       <c r="H5">
-        <v>81.18978200000001</v>
+        <v>9.136198</v>
       </c>
       <c r="I5">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="J5">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.01049366666666667</v>
+        <v>0.110028</v>
       </c>
       <c r="N5">
-        <v>0.031481</v>
+        <v>0.330084</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -759,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.2839928363491112</v>
+        <v>0.3350791978480001</v>
       </c>
       <c r="R5">
-        <v>2.555935527142001</v>
+        <v>3.015712780632</v>
       </c>
       <c r="S5">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="T5">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,28 +791,28 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>274.3202006666667</v>
+        <v>255.8380176666667</v>
       </c>
       <c r="H6">
-        <v>822.960602</v>
+        <v>767.514053</v>
       </c>
       <c r="I6">
-        <v>0.04218684342756861</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="J6">
-        <v>0.04218684342756862</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.01049366666666667</v>
+        <v>0.110028</v>
       </c>
       <c r="N6">
-        <v>0.031481</v>
+        <v>0.330084</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -821,16 +821,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>2.878624745729111</v>
+        <v>28.149345407828</v>
       </c>
       <c r="R6">
-        <v>25.907622711562</v>
+        <v>253.344108670452</v>
       </c>
       <c r="S6">
-        <v>0.04218684342756861</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="T6">
-        <v>0.04218684342756862</v>
+        <v>0.08503283087843555</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,28 +853,28 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3661.277099333334</v>
+        <v>2125.066569</v>
       </c>
       <c r="H7">
-        <v>10983.831298</v>
+        <v>6375.199707000001</v>
       </c>
       <c r="I7">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="J7">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.01049366666666667</v>
+        <v>0.110028</v>
       </c>
       <c r="N7">
-        <v>0.031481</v>
+        <v>0.330084</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -883,16 +883,16 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>38.42022145470423</v>
+        <v>233.816824453932</v>
       </c>
       <c r="R7">
-        <v>345.781993092338</v>
+        <v>2104.351420085388</v>
       </c>
       <c r="S7">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="T7">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
     </row>
   </sheetData>
